--- a/结果/2_1_销量-成本加成定价的定性关系.xlsx
+++ b/结果/2_1_销量-成本加成定价的定性关系.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,207 +436,149 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>花菜类</t>
+          <t>样本数量</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>花叶类</t>
+          <t>相关系数</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>茄类</t>
+          <t>置信区间</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>辣椒类</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>食用菌</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>水生根茎类</t>
+          <t>p值</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>花菜类</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1013</v>
       </c>
       <c r="C2" t="n">
-        <v>1056</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1008</v>
+        <v>-0.262</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[-0.32 -0.2 ]</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>969</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1038</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>花叶类</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.262</v>
+        <v>1056</v>
       </c>
       <c r="C3" t="n">
         <v>-0.178</v>
       </c>
-      <c r="D3" t="n">
-        <v>-0.285</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[-0.24 -0.12]</t>
+        </is>
       </c>
       <c r="E3" t="n">
-        <v>-0.341</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.414</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-0.365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>CI95%</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>[-0.32 -0.2 ]</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[-0.24 -0.12]</t>
-        </is>
+          <t>茄类</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1008</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.285</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>[-0.34 -0.23]</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[-0.4  -0.28]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[-0.46 -0.36]</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>[-0.42 -0.31]</t>
-        </is>
+      <c r="E4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>p-val</t>
+          <t>辣椒类</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>969</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
+        <v>-0.341</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>[-0.4  -0.28]</t>
+        </is>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>BF10</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1.6e+14</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>8.602e+05</t>
-        </is>
+          <t>食用菌</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1038</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.414</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.008e+17</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3.625e+24</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.181e+40</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>7.679e+29</t>
-        </is>
+          <t>[-0.46 -0.36]</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>power</t>
+          <t>水生根茎类</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>1013</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
+        <v>-0.365</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>[-0.42 -0.31]</t>
+        </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/结果/2_1_销量-成本加成定价的定性关系.xlsx
+++ b/结果/2_1_销量-成本加成定价的定性关系.xlsx
@@ -465,7 +465,7 @@
         <v>1013</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.262</v>
+        <v>-0.26</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -486,7 +486,7 @@
         <v>1056</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.178</v>
+        <v>-0.18</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -507,7 +507,7 @@
         <v>1008</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.285</v>
+        <v>-0.28</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -528,7 +528,7 @@
         <v>969</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.341</v>
+        <v>-0.34</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         <v>1038</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.414</v>
+        <v>-0.41</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -570,7 +570,7 @@
         <v>1013</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.365</v>
+        <v>-0.36</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
